--- a/Results/Plot data/ipcc_ar6_figure_regions_countries.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_regions_countries.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -27,7 +27,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-15 13:17:46</t>
+    <t xml:space="preserve">2021-10-15 15:19:26</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -361,6 +361,18 @@
   </si>
   <si>
     <t xml:space="preserve">VNM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRA</t>
   </si>
 </sst>
 </file>
@@ -2613,6 +2625,52 @@
         <v>0.624526121278409</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-3.13681919422224</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.149748265115072</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.74437083964458</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.145332580540567</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.62051639729969</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.0707187356488979</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.63879934291407</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.144843896816565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Results/Plot data/ipcc_ar6_figure_regions_countries.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_regions_countries.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -27,7 +27,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-15 15:19:26</t>
+    <t xml:space="preserve">2022-02-01 17:21:16</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -697,10 +697,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -815,10 +815,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1071,7 +1071,7 @@
         <v>16.1931018938884</v>
       </c>
       <c r="T3" t="n">
-        <v>15.7712794587608</v>
+        <v>15.7712794587609</v>
       </c>
       <c r="U3" t="n">
         <v>14.6403839237554</v>
@@ -1589,10 +1589,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1674,10 +1674,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2181,10 +2181,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2432,7 +2432,7 @@
         <v>0.326102804267836</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0229235582109067</v>
+        <v>0.0229235582109066</v>
       </c>
       <c r="F11" t="n">
         <v>6.22260131073457</v>
@@ -2455,7 +2455,7 @@
         <v>0.722252220677122</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0488135269220331</v>
+        <v>0.048813526922033</v>
       </c>
       <c r="F12" t="n">
         <v>20.7037751102373</v>
@@ -2662,7 +2662,7 @@
         <v>-1.62051639729969</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0707187356488979</v>
+        <v>-0.070718735648898</v>
       </c>
       <c r="F21" t="n">
         <v>6.63879934291407</v>

--- a/Results/Plot data/ipcc_ar6_figure_regions_countries.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_regions_countries.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -27,7 +27,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-02-01 17:21:16</t>
+    <t xml:space="preserve">2022-04-01 14:07:45</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">kgCO2eq/$</t>
   </si>
   <si>
-    <t xml:space="preserve">region_ar6_6</t>
+    <t xml:space="preserve">region_ar6_10</t>
   </si>
   <si>
     <t xml:space="preserve">1990</t>
@@ -177,25 +177,37 @@
     <t xml:space="preserve">2019</t>
   </si>
   <si>
+    <t xml:space="preserve">Intl. Shipping &amp; Aviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia, Japan, New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Asia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">Developed Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intl. Shipping &amp; Aviation</t>
+    <t xml:space="preserve">South-East Asia and Pacific</t>
   </si>
   <si>
     <t xml:space="preserve">Latin America and Caribbean</t>
   </si>
   <si>
-    <t xml:space="preserve">Middle East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asia and developing Pacific</t>
+    <t xml:space="preserve">North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Asia</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -207,34 +219,10 @@
     <t xml:space="preserve">total_rate</t>
   </si>
   <si>
-    <t xml:space="preserve">region_ar6_6_short</t>
-  </si>
-  <si>
     <t xml:space="preserve">shares</t>
   </si>
   <si>
     <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIRSEA</t>
   </si>
   <si>
     <t xml:space="preserve">country</t>
@@ -922,94 +910,94 @@
         <v>53</v>
       </c>
       <c r="B2" t="n">
-        <v>2.78082629969634</v>
+        <v>0.657585398928874</v>
       </c>
       <c r="C2" t="n">
-        <v>2.87739858640745</v>
+        <v>0.665672160889754</v>
       </c>
       <c r="D2" t="n">
-        <v>2.95876924217216</v>
+        <v>0.703740340671579</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01572617615776</v>
+        <v>0.695986037784873</v>
       </c>
       <c r="F2" t="n">
-        <v>3.11589161275383</v>
+        <v>0.723832394536284</v>
       </c>
       <c r="G2" t="n">
-        <v>3.22156381730715</v>
+        <v>0.74917490294902</v>
       </c>
       <c r="H2" t="n">
-        <v>3.34816656704694</v>
+        <v>0.771862650204121</v>
       </c>
       <c r="I2" t="n">
-        <v>3.37348324127234</v>
+        <v>0.798977621941093</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35635147262133</v>
+        <v>0.824375049616197</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35016380522187</v>
+        <v>0.862916559230118</v>
       </c>
       <c r="L2" t="n">
-        <v>3.41437125715148</v>
+        <v>0.889951956205969</v>
       </c>
       <c r="M2" t="n">
-        <v>3.51680931016386</v>
+        <v>0.857035660374644</v>
       </c>
       <c r="N2" t="n">
-        <v>3.56237859089666</v>
+        <v>0.895560086125576</v>
       </c>
       <c r="O2" t="n">
-        <v>3.70404529785011</v>
+        <v>0.905522102765936</v>
       </c>
       <c r="P2" t="n">
-        <v>3.83945420789481</v>
+        <v>0.986722756931731</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.89543845456736</v>
+        <v>1.03402450250462</v>
       </c>
       <c r="R2" t="n">
-        <v>3.8857916716116</v>
+        <v>1.08825688220539</v>
       </c>
       <c r="S2" t="n">
-        <v>3.90571529382136</v>
+        <v>1.13798965902818</v>
       </c>
       <c r="T2" t="n">
-        <v>4.02947355982791</v>
+        <v>1.14785747339975</v>
       </c>
       <c r="U2" t="n">
-        <v>4.18567420835503</v>
+        <v>1.09291056523708</v>
       </c>
       <c r="V2" t="n">
-        <v>4.40193053941053</v>
+        <v>1.16604985695476</v>
       </c>
       <c r="W2" t="n">
-        <v>4.36239782751467</v>
+        <v>1.18404971383814</v>
       </c>
       <c r="X2" t="n">
-        <v>4.51005418220144</v>
+        <v>1.13946642920041</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.60182073069873</v>
+        <v>1.14544932980022</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.76619118884116</v>
+        <v>1.18380924242317</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.74171393016355</v>
+        <v>1.23754288276963</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.79656285214237</v>
+        <v>1.28124371023205</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.89308552904973</v>
+        <v>1.3320666782821</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.04762363838608</v>
+        <v>1.36376222056813</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.07156875397265</v>
+        <v>1.44144122413258</v>
       </c>
     </row>
     <row r="3">
@@ -1017,94 +1005,94 @@
         <v>54</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7455350036861</v>
+        <v>1.87012588717439</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5668058761047</v>
+        <v>1.86999186278766</v>
       </c>
       <c r="D3" t="n">
-        <v>15.3749707098041</v>
+        <v>1.87610533932058</v>
       </c>
       <c r="E3" t="n">
-        <v>15.2777173278289</v>
+        <v>1.86584149745744</v>
       </c>
       <c r="F3" t="n">
-        <v>15.3263104095807</v>
+        <v>1.92329944190086</v>
       </c>
       <c r="G3" t="n">
-        <v>15.489599966487</v>
+        <v>1.9443027833912</v>
       </c>
       <c r="H3" t="n">
-        <v>15.7631065645733</v>
+        <v>1.97099020453371</v>
       </c>
       <c r="I3" t="n">
-        <v>15.9624615656495</v>
+        <v>1.96622532548156</v>
       </c>
       <c r="J3" t="n">
-        <v>15.8889128623955</v>
+        <v>1.9269143970541</v>
       </c>
       <c r="K3" t="n">
-        <v>15.8593669075544</v>
+        <v>1.96788065310323</v>
       </c>
       <c r="L3" t="n">
-        <v>16.1824234366715</v>
+        <v>2.07029682969773</v>
       </c>
       <c r="M3" t="n">
-        <v>16.0142187946389</v>
+        <v>2.00597721061392</v>
       </c>
       <c r="N3" t="n">
-        <v>15.8097126653049</v>
+        <v>2.03367277859455</v>
       </c>
       <c r="O3" t="n">
-        <v>16.0747845924687</v>
+        <v>2.05023559625178</v>
       </c>
       <c r="P3" t="n">
-        <v>16.1911743534671</v>
+        <v>2.09896703530051</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.1192310624148</v>
+        <v>2.07249384886119</v>
       </c>
       <c r="R3" t="n">
-        <v>15.9792959258625</v>
+        <v>2.0204930440599</v>
       </c>
       <c r="S3" t="n">
-        <v>16.1931018938884</v>
+        <v>2.07380895900882</v>
       </c>
       <c r="T3" t="n">
-        <v>15.7712794587609</v>
+        <v>2.08323778223117</v>
       </c>
       <c r="U3" t="n">
-        <v>14.6403839237554</v>
+        <v>1.9604053537105</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2299828466625</v>
+        <v>2.14483686568925</v>
       </c>
       <c r="W3" t="n">
-        <v>15.0536544559668</v>
+        <v>2.12341911280799</v>
       </c>
       <c r="X3" t="n">
-        <v>14.7067324459587</v>
+        <v>2.18036642045195</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.9188554691587</v>
+        <v>2.19568501889941</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.594116074655</v>
+        <v>2.15611818783185</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.4663687977887</v>
+        <v>2.06813723744756</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5339954454984</v>
+        <v>2.07530978549127</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.3252493816163</v>
+        <v>2.04685065085393</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.4323940474538</v>
+        <v>2.06842290401029</v>
       </c>
       <c r="AE3" t="n">
-        <v>14.1104411007832</v>
+        <v>2.03814877512627</v>
       </c>
     </row>
     <row r="4">
@@ -1112,94 +1100,94 @@
         <v>55</v>
       </c>
       <c r="B4" t="n">
-        <v>4.34455108002355</v>
+        <v>1.1196917240206</v>
       </c>
       <c r="C4" t="n">
-        <v>4.23112518494788</v>
+        <v>1.11439182524864</v>
       </c>
       <c r="D4" t="n">
-        <v>3.90375293302597</v>
+        <v>1.18760541615587</v>
       </c>
       <c r="E4" t="n">
-        <v>3.55612645995499</v>
+        <v>1.26398973448913</v>
       </c>
       <c r="F4" t="n">
-        <v>3.18200660338215</v>
+        <v>1.35759792098348</v>
       </c>
       <c r="G4" t="n">
-        <v>3.03190356145307</v>
+        <v>1.36808124928396</v>
       </c>
       <c r="H4" t="n">
-        <v>2.91164644773911</v>
+        <v>1.42032572203835</v>
       </c>
       <c r="I4" t="n">
-        <v>2.72181958439123</v>
+        <v>1.50892307062507</v>
       </c>
       <c r="J4" t="n">
-        <v>2.7223917352792</v>
+        <v>1.48707905837648</v>
       </c>
       <c r="K4" t="n">
-        <v>2.72568765518876</v>
+        <v>1.53550049541637</v>
       </c>
       <c r="L4" t="n">
-        <v>2.82173542971422</v>
+        <v>1.65554125118044</v>
       </c>
       <c r="M4" t="n">
-        <v>2.84008319887012</v>
+        <v>1.71101107384813</v>
       </c>
       <c r="N4" t="n">
-        <v>2.87144740482896</v>
+        <v>1.74791320451317</v>
       </c>
       <c r="O4" t="n">
-        <v>2.96383054177743</v>
+        <v>1.85242383501642</v>
       </c>
       <c r="P4" t="n">
-        <v>3.19988858932357</v>
+        <v>1.95464917412148</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.08534494581523</v>
+        <v>2.06748091266572</v>
       </c>
       <c r="R4" t="n">
-        <v>3.13161036598898</v>
+        <v>2.18135036937302</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1647413816658</v>
+        <v>2.25310858823352</v>
       </c>
       <c r="T4" t="n">
-        <v>3.23454831725637</v>
+        <v>2.35875525815993</v>
       </c>
       <c r="U4" t="n">
-        <v>3.0024294378487</v>
+        <v>2.44434919748245</v>
       </c>
       <c r="V4" t="n">
-        <v>3.18312590654297</v>
+        <v>2.56222085670113</v>
       </c>
       <c r="W4" t="n">
-        <v>3.32973810005386</v>
+        <v>2.65305991419426</v>
       </c>
       <c r="X4" t="n">
-        <v>3.3894523067667</v>
+        <v>2.74237594192001</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.33949416539418</v>
+        <v>2.81150702121307</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.29983386932526</v>
+        <v>2.90195732677255</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.34535805090954</v>
+        <v>2.95401801566442</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.40774783762414</v>
+        <v>3.0716118589275</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.42679831105711</v>
+        <v>3.12636674787827</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.49773692599985</v>
+        <v>3.161303749887</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.49625382876753</v>
+        <v>3.21500439953195</v>
       </c>
     </row>
     <row r="5">
@@ -1207,94 +1195,94 @@
         <v>56</v>
       </c>
       <c r="B5" t="n">
-        <v>0.657585398928874</v>
+        <v>5.30273656574296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.665672160889754</v>
+        <v>5.12902013154524</v>
       </c>
       <c r="D5" t="n">
-        <v>0.703740340671579</v>
+        <v>4.70689544563416</v>
       </c>
       <c r="E5" t="n">
-        <v>0.695986037784873</v>
+        <v>4.2655906480568</v>
       </c>
       <c r="F5" t="n">
-        <v>0.723832394536284</v>
+        <v>3.77994992147645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.74917490294902</v>
+        <v>3.60986527524121</v>
       </c>
       <c r="H5" t="n">
-        <v>0.771862650204121</v>
+        <v>3.40507054289048</v>
       </c>
       <c r="I5" t="n">
-        <v>0.798977621941093</v>
+        <v>3.19313094327486</v>
       </c>
       <c r="J5" t="n">
-        <v>0.824375049616197</v>
+        <v>3.16661573073409</v>
       </c>
       <c r="K5" t="n">
-        <v>0.862916559230118</v>
+        <v>3.16607550959284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.889951956205969</v>
+        <v>3.2614033219073</v>
       </c>
       <c r="M5" t="n">
-        <v>0.857035660374644</v>
+        <v>3.27282336641163</v>
       </c>
       <c r="N5" t="n">
-        <v>0.895560086125576</v>
+        <v>3.3094280139448</v>
       </c>
       <c r="O5" t="n">
-        <v>0.905522102765936</v>
+        <v>3.4370393813706</v>
       </c>
       <c r="P5" t="n">
-        <v>0.986722756931731</v>
+        <v>3.6653790248807</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.03402450250462</v>
+        <v>3.53264320785582</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08825688220539</v>
+        <v>3.56783561527532</v>
       </c>
       <c r="S5" t="n">
-        <v>1.13798965902818</v>
+        <v>3.61224537239387</v>
       </c>
       <c r="T5" t="n">
-        <v>1.14785747339975</v>
+        <v>3.66290988907601</v>
       </c>
       <c r="U5" t="n">
-        <v>1.09291056523708</v>
+        <v>3.36885176410189</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16604985695476</v>
+        <v>3.56467915198467</v>
       </c>
       <c r="W5" t="n">
-        <v>1.18404971383814</v>
+        <v>3.73442051526178</v>
       </c>
       <c r="X5" t="n">
-        <v>1.13946642920041</v>
+        <v>3.78744054555905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.14544932980022</v>
+        <v>3.72727697475879</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.18380924242317</v>
+        <v>3.6397761916271</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.23754288276963</v>
+        <v>3.62909183704316</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.28124371023205</v>
+        <v>3.69772397178212</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.3320666782821</v>
+        <v>3.71395411870247</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.36376222056813</v>
+        <v>3.76909513259027</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.44144122413258</v>
+        <v>3.75571714454397</v>
       </c>
     </row>
     <row r="6">
@@ -1302,94 +1290,94 @@
         <v>57</v>
       </c>
       <c r="B6" t="n">
-        <v>3.71400451800347</v>
+        <v>6.00850268123535</v>
       </c>
       <c r="C6" t="n">
-        <v>3.77246223655275</v>
+        <v>5.92574420283886</v>
       </c>
       <c r="D6" t="n">
-        <v>3.88349884964578</v>
+        <v>5.69040031895291</v>
       </c>
       <c r="E6" t="n">
-        <v>3.98516354118031</v>
+        <v>5.56466095224635</v>
       </c>
       <c r="F6" t="n">
-        <v>4.10769332384996</v>
+        <v>5.52070488798648</v>
       </c>
       <c r="G6" t="n">
-        <v>4.18063833339291</v>
+        <v>5.60182062495319</v>
       </c>
       <c r="H6" t="n">
-        <v>4.24536209097848</v>
+        <v>5.74170557603336</v>
       </c>
       <c r="I6" t="n">
-        <v>4.36349197189307</v>
+        <v>5.66252046352361</v>
       </c>
       <c r="J6" t="n">
-        <v>4.41615770821424</v>
+        <v>5.60529881222937</v>
       </c>
       <c r="K6" t="n">
-        <v>4.42165908789672</v>
+        <v>5.50913014119691</v>
       </c>
       <c r="L6" t="n">
-        <v>4.73094025693886</v>
+        <v>5.55518585694978</v>
       </c>
       <c r="M6" t="n">
-        <v>4.86989036108067</v>
+        <v>5.57643443913582</v>
       </c>
       <c r="N6" t="n">
-        <v>5.13093752829012</v>
+        <v>5.51900752120538</v>
       </c>
       <c r="O6" t="n">
-        <v>5.33528172591339</v>
+        <v>5.68401718708651</v>
       </c>
       <c r="P6" t="n">
-        <v>5.42401545617308</v>
+        <v>5.6923158193877</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.48174089808844</v>
+        <v>5.68144870366135</v>
       </c>
       <c r="R6" t="n">
-        <v>5.58380978254518</v>
+        <v>5.67538305267331</v>
       </c>
       <c r="S6" t="n">
-        <v>5.52971419310767</v>
+        <v>5.67479601605791</v>
       </c>
       <c r="T6" t="n">
-        <v>5.58061184863622</v>
+        <v>5.52672048540014</v>
       </c>
       <c r="U6" t="n">
-        <v>5.6580469206152</v>
+        <v>5.19442043403901</v>
       </c>
       <c r="V6" t="n">
-        <v>5.59013930590101</v>
+        <v>5.34847444660226</v>
       </c>
       <c r="W6" t="n">
-        <v>5.44692902881746</v>
+        <v>5.18873143999569</v>
       </c>
       <c r="X6" t="n">
-        <v>5.79395764090382</v>
+        <v>5.19066602901379</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.87242376340621</v>
+        <v>5.07671443855432</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.61233294498165</v>
+        <v>4.9177325119416</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.79848268553718</v>
+        <v>4.96906069367127</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.79931403700995</v>
+        <v>5.11761356690544</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.72429129442875</v>
+        <v>5.09926964394479</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.61196111278435</v>
+        <v>4.9904303700081</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.915537041625</v>
+        <v>4.8141950027126</v>
       </c>
     </row>
     <row r="7">
@@ -1397,94 +1385,94 @@
         <v>58</v>
       </c>
       <c r="B7" t="n">
-        <v>1.1196917240206</v>
+        <v>2.02261846758338</v>
       </c>
       <c r="C7" t="n">
-        <v>1.11439182524864</v>
+        <v>2.08945289027947</v>
       </c>
       <c r="D7" t="n">
-        <v>1.18760541615587</v>
+        <v>2.12726839898334</v>
       </c>
       <c r="E7" t="n">
-        <v>1.2639885131558</v>
+        <v>2.17667579413154</v>
       </c>
       <c r="F7" t="n">
-        <v>1.35760158498348</v>
+        <v>2.24226568869369</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36808369195062</v>
+        <v>2.32491718049211</v>
       </c>
       <c r="H7" t="n">
-        <v>1.42032083670502</v>
+        <v>2.38054883458996</v>
       </c>
       <c r="I7" t="n">
-        <v>1.50891818529174</v>
+        <v>2.44254463939879</v>
       </c>
       <c r="J7" t="n">
-        <v>1.48708272237648</v>
+        <v>2.46710798526392</v>
       </c>
       <c r="K7" t="n">
-        <v>1.53550415941637</v>
+        <v>2.55799563267698</v>
       </c>
       <c r="L7" t="n">
-        <v>1.65553636584711</v>
+        <v>2.73907001167569</v>
       </c>
       <c r="M7" t="n">
-        <v>1.71101229518146</v>
+        <v>2.66915291412522</v>
       </c>
       <c r="N7" t="n">
-        <v>1.74791198317983</v>
+        <v>2.71280357713463</v>
       </c>
       <c r="O7" t="n">
-        <v>1.85242383501642</v>
+        <v>2.7447175168982</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95464917412148</v>
+        <v>2.86331445667272</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06748091266572</v>
+        <v>2.94506864472607</v>
       </c>
       <c r="R7" t="n">
-        <v>2.18135036937302</v>
+        <v>3.04216616234046</v>
       </c>
       <c r="S7" t="n">
-        <v>2.25310858823352</v>
+        <v>3.22395602620608</v>
       </c>
       <c r="T7" t="n">
-        <v>2.35875525815993</v>
+        <v>3.36491994852362</v>
       </c>
       <c r="U7" t="n">
-        <v>2.44434919748245</v>
+        <v>3.53416290805653</v>
       </c>
       <c r="V7" t="n">
-        <v>2.56222085670113</v>
+        <v>3.67306331937963</v>
       </c>
       <c r="W7" t="n">
-        <v>2.65305991419426</v>
+        <v>3.7970102772875</v>
       </c>
       <c r="X7" t="n">
-        <v>2.74237594192001</v>
+        <v>4.07928629743078</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.81150702121307</v>
+        <v>4.078482962855</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.90195732677255</v>
+        <v>4.26460027408145</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.95401801566442</v>
+        <v>4.31749240437199</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.0716118589275</v>
+        <v>4.45827960906887</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.12636674787827</v>
+        <v>4.57339198920519</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.161303749887</v>
+        <v>4.7639561644443</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.21500439953195</v>
+        <v>4.83994779916639</v>
       </c>
     </row>
     <row r="8">
@@ -1492,94 +1480,474 @@
         <v>59</v>
       </c>
       <c r="B8" t="n">
-        <v>9.90809557645126</v>
+        <v>2.78085561169634</v>
       </c>
       <c r="C8" t="n">
-        <v>10.086178162437</v>
+        <v>2.87734362640745</v>
       </c>
       <c r="D8" t="n">
-        <v>10.2718783610202</v>
+        <v>2.95871550350549</v>
       </c>
       <c r="E8" t="n">
-        <v>10.5894080120088</v>
+        <v>3.01577380815776</v>
       </c>
       <c r="F8" t="n">
-        <v>10.9213277715703</v>
+        <v>3.1159013834205</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5408460893192</v>
+        <v>3.22162366264048</v>
       </c>
       <c r="H8" t="n">
-        <v>11.6863532442421</v>
+        <v>3.34821053504694</v>
       </c>
       <c r="I8" t="n">
-        <v>13.6107063802197</v>
+        <v>3.37347347060568</v>
       </c>
       <c r="J8" t="n">
-        <v>11.71315933426</v>
+        <v>3.35634536595466</v>
       </c>
       <c r="K8" t="n">
-        <v>11.8334696690081</v>
+        <v>3.35021021588854</v>
       </c>
       <c r="L8" t="n">
-        <v>12.4622460428372</v>
+        <v>3.41439568381814</v>
       </c>
       <c r="M8" t="n">
-        <v>12.5330284671801</v>
+        <v>3.51675679283053</v>
       </c>
       <c r="N8" t="n">
-        <v>13.3998467984722</v>
+        <v>3.56243599356333</v>
       </c>
       <c r="O8" t="n">
-        <v>14.3379184763804</v>
+        <v>3.70403308451677</v>
       </c>
       <c r="P8" t="n">
-        <v>15.1033699596472</v>
+        <v>3.83942489589481</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.0061327256197</v>
+        <v>3.89545799590069</v>
       </c>
       <c r="R8" t="n">
-        <v>17.3455524617851</v>
+        <v>3.88579289294494</v>
       </c>
       <c r="S8" t="n">
-        <v>17.6745869759499</v>
+        <v>3.90572140048802</v>
       </c>
       <c r="T8" t="n">
-        <v>18.2347956679714</v>
+        <v>4.02949676516124</v>
       </c>
       <c r="U8" t="n">
-        <v>19.8905675802106</v>
+        <v>4.1856473390217</v>
       </c>
       <c r="V8" t="n">
-        <v>20.4152961374843</v>
+        <v>4.40190977674387</v>
       </c>
       <c r="W8" t="n">
-        <v>21.5689047212943</v>
+        <v>4.36237584351467</v>
       </c>
       <c r="X8" t="n">
-        <v>22.4439746012655</v>
+        <v>4.5100786088681</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.8307340898007</v>
+        <v>4.60178164803206</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.9498870561132</v>
+        <v>4.76621317284116</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.0237844800807</v>
+        <v>4.74172736483021</v>
       </c>
       <c r="AB8" t="n">
-        <v>23.3279542376438</v>
+        <v>4.7966153694757</v>
       </c>
       <c r="AC8" t="n">
-        <v>23.9579750017652</v>
+        <v>4.8930403397164</v>
       </c>
       <c r="AD8" t="n">
-        <v>24.7175606290101</v>
+        <v>5.04759432638608</v>
       </c>
       <c r="AE8" t="n">
-        <v>25.8403784787994</v>
+        <v>5.07153944197265</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.75853765680817</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.79989886968156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.85833278004579</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.92311035677399</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.00393203581188</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.10591648669561</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.18762680530516</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.01358792596258</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.08798036987182</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.1206667381005</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.13196733079274</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.15627370042342</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.66020054566837</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.55726855805173</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.47487273237322</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.47934286892648</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.99535639833233</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.51267079618409</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.65180715484602</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.31936449639461</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.87730396338567</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.97933041124166</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.23148007890388</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.31746290076569</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4.61900932552868</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.04657137205003</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4.0757535585897</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4.34314095124005</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4.53997536874694</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5.2916073838154</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.7140570353368</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.77251963921942</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.88351106297911</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.98516231984698</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.10770187318329</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.18069329339291</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.24537918964515</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.36354693189307</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.41621144688091</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.42162855456338</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.73097201160553</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.86991967308067</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.13089844562345</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.33523042991339</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.42407530150642</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5.48168838075511</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.58386474254518</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.52969343044101</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.58062650463622</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5.65803470728187</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5.59018083123434</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.44692414348412</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.79396741157049</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5.87243597673954</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>5.61239034764832</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5.79853520287051</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5.79927251167662</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.72432427042875</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.61194157145101</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.91551750029167</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.90873194277832</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.87316875599284</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.00532620292244</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.13775679668993</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.28436520426569</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.36552949791177</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.55699035285491</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.86241785242737</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.91247688021181</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.94197436429553</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.1172630847216</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.99906209201429</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.81904565094384</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.86733151887059</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7.93439739922172</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.91799024785164</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7.84720679439762</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7.99699170920292</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.73295717542191</v>
+      </c>
+      <c r="U11" t="n">
+        <v>7.11913092564071</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.35511951026267</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.33682270806724</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6.93771053392462</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.25867564744969</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.18032793791307</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.14544685364558</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>7.05109595894367</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.89197572183894</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.10218134795429</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6.99863278827725</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.1269247960597</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.19677754914261</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.28626130465777</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.48964506643661</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.67514714573142</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.11003684879809</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.11816661234699</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.1545738148583</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.15809906979091</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.15477432223064</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.59120992170212</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.70762261529815</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.02690374233589</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8.03590431076377</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8.76513758126795</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9.58175540930047</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10.3080164664456</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10.9380212202264</v>
+      </c>
+      <c r="T12" t="n">
+        <v>11.2181186392685</v>
+      </c>
+      <c r="U12" t="n">
+        <v>12.0369827730928</v>
+      </c>
+      <c r="V12" t="n">
+        <v>12.864921526719</v>
+      </c>
+      <c r="W12" t="n">
+        <v>13.7925909020985</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14.1332497502642</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>14.4348431861801</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15.0662579151697</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>14.6597084903254</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>14.7939283979852</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15.0414530533199</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15.4136119971522</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15.7088061971509</v>
       </c>
     </row>
   </sheetData>
@@ -1598,13 +1966,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -1612,10 +1980,10 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>38.2702896008102</v>
+        <v>38.2703677673649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.655668014242194</v>
+        <v>0.655641132474138</v>
       </c>
     </row>
     <row r="3">
@@ -1623,7 +1991,7 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>40.5887678435164</v>
+        <v>40.5887531862951</v>
       </c>
       <c r="C3"/>
     </row>
@@ -1632,10 +2000,10 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>42.1572047453664</v>
+        <v>42.157257260257</v>
       </c>
       <c r="C4" t="n">
-        <v>2.11924866270339</v>
+        <v>2.11921193753561</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +2011,7 @@
         <v>2009</v>
       </c>
       <c r="B5" t="n">
-        <v>50.9143618335045</v>
+        <v>50.9142604640591</v>
       </c>
       <c r="C5"/>
     </row>
@@ -1652,10 +2020,10 @@
         <v>2010</v>
       </c>
       <c r="B6" t="n">
-        <v>52.5487454496572</v>
+        <v>52.5487601056572</v>
       </c>
       <c r="C6" t="n">
-        <v>1.31221333468605</v>
+        <v>1.31219739887081</v>
       </c>
     </row>
     <row r="7">
@@ -1663,7 +2031,7 @@
         <v>2019</v>
       </c>
       <c r="B7" t="n">
-        <v>59.0906248276123</v>
+        <v>59.0905576567216</v>
       </c>
       <c r="C7"/>
     </row>
@@ -1683,19 +2051,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -1705,14 +2070,11 @@
       <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
+      <c r="C2" t="n">
+        <v>1.71826255479476</v>
       </c>
       <c r="D2" t="n">
-        <v>7.26627973998261</v>
-      </c>
-      <c r="E2" t="n">
-        <v>36.8798764509621</v>
+        <v>37.9415750679005</v>
       </c>
     </row>
     <row r="3">
@@ -1720,16 +2082,13 @@
         <v>1990</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.88661592839235</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8897846862426</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30.5354155128883</v>
+        <v>36.6777194248488</v>
       </c>
     </row>
     <row r="4">
@@ -1737,16 +2096,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.9257406953257</v>
       </c>
       <c r="D4" t="n">
-        <v>41.1429732252478</v>
-      </c>
-      <c r="E4" t="n">
-        <v>17.7086002228196</v>
+        <v>35.1828106192513</v>
       </c>
     </row>
     <row r="5">
@@ -1754,16 +2110,13 @@
         <v>1990</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.8559853879034</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3522816925106</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.66355718096472</v>
+        <v>31.9715964743696</v>
       </c>
     </row>
     <row r="6">
@@ -1773,14 +2126,11 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
-        <v>70</v>
+      <c r="C6" t="n">
+        <v>15.7001435621403</v>
       </c>
       <c r="D6" t="n">
-        <v>9.70466792058149</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.63427938195121</v>
+        <v>26.3159768508804</v>
       </c>
     </row>
     <row r="7">
@@ -1790,14 +2140,11 @@
       <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>71</v>
+      <c r="C7" t="n">
+        <v>5.28507716434378</v>
       </c>
       <c r="D7" t="n">
-        <v>2.92574667111194</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.21743126093918</v>
+        <v>22.300416276471</v>
       </c>
     </row>
     <row r="8">
@@ -1805,84 +2152,69 @@
         <v>1990</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.266341490629</v>
       </c>
       <c r="D8" t="n">
-        <v>1.71826606432305</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.328792699464437</v>
+        <v>19.8986792368312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.20802494916319</v>
       </c>
       <c r="D9" t="n">
-        <v>8.0991405330942</v>
-      </c>
-      <c r="E9" t="n">
-        <v>40.4500191167906</v>
+        <v>17.1289826025789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.70478532611324</v>
       </c>
       <c r="D10" t="n">
-        <v>29.5613670738143</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32.5117104667963</v>
+        <v>13.8926852565064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.0524315438373</v>
       </c>
       <c r="D11" t="n">
-        <v>38.3859023253912</v>
-      </c>
-      <c r="E11" t="n">
-        <v>18.1893757270419</v>
+        <v>8.58129076744886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13.396591397357</v>
       </c>
       <c r="D12" t="n">
-        <v>6.69336462594658</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.68729629384905</v>
+        <v>2.56346239802985</v>
       </c>
     </row>
     <row r="13">
@@ -1890,16 +2222,13 @@
         <v>2000</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.11102907077628</v>
       </c>
       <c r="D13" t="n">
-        <v>11.2221393365955</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.91095845052251</v>
+        <v>41.712281282154</v>
       </c>
     </row>
     <row r="14">
@@ -1907,16 +2236,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.91089070837031</v>
       </c>
       <c r="D14" t="n">
-        <v>3.92705440469004</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.71772013912952</v>
+        <v>40.2321568892022</v>
       </c>
     </row>
     <row r="15">
@@ -1924,254 +2250,433 @@
         <v>2000</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.92706110115274</v>
       </c>
       <c r="D15" t="n">
-        <v>2.1110317004682</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.444975978102985</v>
+        <v>38.3692378487631</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.73627966775231</v>
       </c>
       <c r="D16" t="n">
-        <v>8.3768518196646</v>
-      </c>
-      <c r="E16" t="n">
-        <v>50.347780179952</v>
+        <v>35.9107655622192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.1772942975273</v>
       </c>
       <c r="D17" t="n">
-        <v>38.8502065326042</v>
-      </c>
-      <c r="E17" t="n">
-        <v>37.9391668415046</v>
+        <v>31.5024709727907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.49726806173867</v>
       </c>
       <c r="D18" t="n">
-        <v>28.9825812516365</v>
-      </c>
-      <c r="E18" t="n">
-        <v>20.1165273494311</v>
+        <v>27.355343038478</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.09918838585593</v>
       </c>
       <c r="D19" t="n">
-        <v>6.05747269379146</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.9099729728284</v>
+        <v>24.2786101907311</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.42924832955236</v>
       </c>
       <c r="D20" t="n">
-        <v>10.6380071647124</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.5233403666064</v>
+        <v>21.0054286834256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.2222006816026</v>
       </c>
       <c r="D21" t="n">
-        <v>4.87589348665953</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2.44716028530533</v>
+        <v>17.0739590122265</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19.2547229403702</v>
       </c>
       <c r="D22" t="n">
-        <v>2.21898705093133</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.58302492847738</v>
+        <v>10.6498414640629</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15.6348167553012</v>
       </c>
       <c r="D23" t="n">
-        <v>8.58269610241584</v>
-      </c>
-      <c r="E23" t="n">
-        <v>56.554840450626</v>
+        <v>3.29560496085106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.21898643204947</v>
       </c>
       <c r="D24" t="n">
-        <v>43.7300816401665</v>
-      </c>
-      <c r="E24" t="n">
-        <v>41.09886683424</v>
+        <v>51.9657351771798</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>68</v>
+      <c r="C25" t="n">
+        <v>4.08161269909457</v>
       </c>
       <c r="D25" t="n">
-        <v>23.8793228908109</v>
-      </c>
-      <c r="E25" t="n">
-        <v>21.1234570444487</v>
+        <v>50.3102918158578</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
-        <v>69</v>
+      <c r="C26" t="n">
+        <v>4.87589212675884</v>
       </c>
       <c r="D26" t="n">
-        <v>5.91676571193367</v>
-      </c>
-      <c r="E26" t="n">
-        <v>12.3201095796733</v>
+        <v>47.9567629546627</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.78356472125572</v>
       </c>
       <c r="D27" t="n">
-        <v>10.0109569984793</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7.61421414447703</v>
+        <v>44.8933129503198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.1781173063805</v>
       </c>
       <c r="D28" t="n">
-        <v>5.44080284970961</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3.04894342389855</v>
+        <v>40.4367361510263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.98981919267816</v>
+      </c>
+      <c r="D29" t="n">
+        <v>35.9259672680354</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.3768099720967</v>
+      </c>
+      <c r="D30" t="n">
+        <v>31.8884807199736</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.37848800921233</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27.7488738499088</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.6380832202214</v>
+      </c>
+      <c r="D32" t="n">
+        <v>23.0151314525988</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13.9967517701162</v>
+      </c>
+      <c r="D33" t="n">
+        <v>16.5424812818503</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="n">
+        <v>24.4818745501361</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.43246076335949</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>2019</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.43937657942988</v>
+      </c>
+      <c r="D35" t="n">
+        <v>58.3698370446554</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.4491953637781</v>
+      </c>
+      <c r="D36" t="n">
+        <v>56.6300420450259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.44080903451456</v>
+      </c>
+      <c r="D37" t="n">
+        <v>54.0034654576968</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.43937380648412</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.720720612066288</v>
+      <c r="C38" t="n">
+        <v>6.35586681439408</v>
+      </c>
+      <c r="D38" t="n">
+        <v>50.5181046856589</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8.14714768928057</v>
+      </c>
+      <c r="D39" t="n">
+        <v>46.2331486120306</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.19072960401456</v>
+      </c>
+      <c r="D40" t="n">
+        <v>41.4060772110911</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.58265625353386</v>
+      </c>
+      <c r="D41" t="n">
+        <v>36.4503335905216</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.95508113928499</v>
+      </c>
+      <c r="D42" t="n">
+        <v>31.2687601776275</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10.0109353082383</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25.665197735574</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11.8439105430936</v>
+      </c>
+      <c r="D44" t="n">
+        <v>19.2081225912895</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.5842916704375</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.85440309857546</v>
       </c>
     </row>
   </sheetData>
@@ -2190,36 +2695,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
         <v>2.19415906900959</v>
@@ -2228,7 +2733,7 @@
         <v>2.52314550279129</v>
       </c>
       <c r="F2" t="n">
-        <v>10.1732961306947</v>
+        <v>10.1008127191458</v>
       </c>
       <c r="G2" t="n">
         <v>0.63218406603017</v>
@@ -2236,13 +2741,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
         <v>-0.841852829265866</v>
@@ -2259,13 +2764,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
         <v>3.06307056436792</v>
@@ -2277,18 +2782,18 @@
         <v>2.71819768047841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.404859268013088</v>
+        <v>0.404859268013093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
         <v>0.576902033235038</v>
@@ -2305,13 +2810,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
         <v>1.0283392801911</v>
@@ -2323,18 +2828,18 @@
         <v>6.17635977566115</v>
       </c>
       <c r="G6" t="n">
-        <v>0.418342823784438</v>
+        <v>0.418342823784439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
         <v>-0.763462193449926</v>
@@ -2346,18 +2851,18 @@
         <v>9.80272690705243</v>
       </c>
       <c r="G7" t="n">
-        <v>0.236894749615242</v>
+        <v>0.233273349503439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
         <v>4.365259961549</v>
@@ -2374,13 +2879,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
         <v>2.13102309426556</v>
@@ -2397,13 +2902,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D10" t="n">
         <v>-1.58009874785103</v>
@@ -2415,18 +2920,18 @@
         <v>9.88951023367131</v>
       </c>
       <c r="G10" t="n">
-        <v>0.184370740771531</v>
+        <v>0.183378015590996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D11" t="n">
         <v>0.326102804267836</v>
@@ -2438,18 +2943,18 @@
         <v>6.22260131073457</v>
       </c>
       <c r="G11" t="n">
-        <v>0.315846640213669</v>
+        <v>0.31623287285214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D12" t="n">
         <v>0.722252220677122</v>
@@ -2461,18 +2966,18 @@
         <v>20.7037751102373</v>
       </c>
       <c r="G12" t="n">
-        <v>0.42246788497789</v>
+        <v>0.420964386354798</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
         <v>2.46361895980105</v>
@@ -2489,13 +2994,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" t="n">
         <v>1.07552094168513</v>
@@ -2507,18 +3012,18 @@
         <v>14.3608368061962</v>
       </c>
       <c r="G14" t="n">
-        <v>0.336169777383261</v>
+        <v>0.335496972005261</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
         <v>0.0505810411435714</v>
@@ -2530,18 +3035,18 @@
         <v>23.631370308577</v>
       </c>
       <c r="G15" t="n">
-        <v>0.477830613546367</v>
+        <v>0.479249557716319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D16" t="n">
         <v>0.271753231107597</v>
@@ -2553,18 +3058,18 @@
         <v>10.1168918590135</v>
       </c>
       <c r="G16" t="n">
-        <v>0.810530605424652</v>
+        <v>0.737922441420038</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D17" t="n">
         <v>3.27576363537576</v>
@@ -2576,18 +3081,18 @@
         <v>6.75902857351282</v>
       </c>
       <c r="G17" t="n">
-        <v>0.239689925449441</v>
+        <v>0.239705249753897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D18" t="n">
         <v>3.25967645035219</v>
@@ -2599,18 +3104,18 @@
         <v>2.42353020341525</v>
       </c>
       <c r="G18" t="n">
-        <v>0.516690772668324</v>
+        <v>0.515894265572789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D19" t="n">
         <v>5.33865650142378</v>
@@ -2627,13 +3132,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D20" t="n">
         <v>-3.13681919422224</v>
@@ -2645,18 +3150,18 @@
         <v>6.74437083964458</v>
       </c>
       <c r="G20" t="n">
-        <v>0.145332580540567</v>
+        <v>0.142380671144013</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D21" t="n">
         <v>-1.62051639729969</v>
@@ -2668,7 +3173,7 @@
         <v>6.63879934291407</v>
       </c>
       <c r="G21" t="n">
-        <v>0.144843896816565</v>
+        <v>0.14426600692742</v>
       </c>
     </row>
   </sheetData>
